--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,93 +40,96 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>fake</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>low</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -139,250 +142,256 @@
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
@@ -743,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,7 +763,7 @@
         <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -812,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -830,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>43</v>
@@ -839,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -862,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -889,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -912,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -930,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9696969696969697</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -962,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -980,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1004,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1012,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.72</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1030,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K7">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1062,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7191780821917808</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1080,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1104,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1112,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5862068965517241</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1130,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1162,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5652173913043478</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1180,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K10">
-        <v>0.8947368421052632</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1204,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1212,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5652173913043478</v>
+        <v>0.68</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1230,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>51</v>
@@ -1262,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5263157894736842</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1280,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K12">
-        <v>0.8414634146341463</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L12">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1304,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1312,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5128205128205128</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1330,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1354,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1362,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4871794871794872</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1380,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K14">
-        <v>0.8169014084507042</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L14">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="M14">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1404,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1412,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4666666666666667</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1430,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K15">
-        <v>0.8148148148148148</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1454,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1462,7 +1471,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4516129032258064</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -1480,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K16">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1504,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1512,13 +1521,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4516129032258064</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1530,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K17">
-        <v>0.8046875</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L17">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1554,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1562,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1586,13 +1595,13 @@
         <v>58</v>
       </c>
       <c r="K18">
-        <v>0.7931034482758621</v>
+        <v>0.8125</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1604,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1612,13 +1621,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4324324324324325</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1630,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K19">
-        <v>0.7833333333333333</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L19">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1654,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1662,37 +1671,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4324324324324325</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>16</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.8046875</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1704,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1712,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.392156862745098</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1730,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K21">
-        <v>0.7446808510638298</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1754,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1762,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3892617449664429</v>
+        <v>0.3825503355704698</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1780,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K22">
-        <v>0.7391304347826086</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1804,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1812,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.374031007751938</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C23">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1830,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K23">
-        <v>0.73125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1854,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1862,13 +1871,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3466666666666667</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1880,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K24">
-        <v>0.7264150943396226</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L24">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="M24">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1904,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1912,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3333333333333333</v>
+        <v>0.3624031007751938</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1930,19 +1939,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1954,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1962,13 +1971,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.328042328042328</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1980,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K26">
-        <v>0.7058823529411765</v>
+        <v>0.73125</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2004,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2012,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.325</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2030,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K27">
-        <v>0.6984126984126984</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2054,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2062,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3050847457627119</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2080,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K28">
-        <v>0.6944444444444444</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2104,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2112,7 +2121,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2909090909090909</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -2130,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K29">
-        <v>0.6702127659574468</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L29">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2154,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2162,13 +2171,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2727272727272727</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2180,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K30">
-        <v>0.6470588235294118</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2204,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2212,13 +2221,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2711864406779661</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2230,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K31">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2254,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2262,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2125</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2280,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K32">
-        <v>0.6292428198433421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2304,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2312,13 +2321,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2111111111111111</v>
+        <v>0.225</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2330,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K33">
-        <v>0.6046511627906976</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2354,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2362,13 +2371,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1944444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C34">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2380,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K34">
-        <v>0.6041666666666666</v>
+        <v>0.6370757180156658</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2404,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2412,37 +2421,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1209677419354839</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K35">
-        <v>0.6</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2454,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2462,37 +2471,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004297520661157025</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E36">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>3012</v>
+        <v>339</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K36">
-        <v>0.5823529411764706</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2504,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2512,13 +2521,13 @@
         <v>77</v>
       </c>
       <c r="K37">
-        <v>0.5806451612903226</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2530,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2538,13 +2547,13 @@
         <v>78</v>
       </c>
       <c r="K38">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2556,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2564,13 +2573,13 @@
         <v>79</v>
       </c>
       <c r="K39">
-        <v>0.5730337078651685</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2582,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2590,13 +2599,13 @@
         <v>80</v>
       </c>
       <c r="K40">
-        <v>0.5555555555555556</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2608,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2616,13 +2625,13 @@
         <v>81</v>
       </c>
       <c r="K41">
-        <v>0.5416666666666666</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2634,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2642,13 +2651,13 @@
         <v>82</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2660,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2668,13 +2677,13 @@
         <v>83</v>
       </c>
       <c r="K43">
-        <v>0.5254237288135594</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L43">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2686,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2694,13 +2703,13 @@
         <v>84</v>
       </c>
       <c r="K44">
-        <v>0.5238095238095238</v>
+        <v>0.525</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2712,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2720,13 +2729,13 @@
         <v>85</v>
       </c>
       <c r="K45">
-        <v>0.5185185185185185</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2738,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2746,13 +2755,13 @@
         <v>86</v>
       </c>
       <c r="K46">
-        <v>0.5146443514644351</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L46">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="M46">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2764,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2772,13 +2781,13 @@
         <v>87</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2790,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2798,13 +2807,13 @@
         <v>88</v>
       </c>
       <c r="K48">
-        <v>0.4857142857142857</v>
+        <v>0.5062761506276151</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2816,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2850,13 +2859,13 @@
         <v>90</v>
       </c>
       <c r="K50">
-        <v>0.4383561643835616</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L50">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2868,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2876,13 +2885,13 @@
         <v>91</v>
       </c>
       <c r="K51">
-        <v>0.4358974358974359</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L51">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2894,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2902,13 +2911,13 @@
         <v>92</v>
       </c>
       <c r="K52">
-        <v>0.4285714285714285</v>
+        <v>0.453125</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2920,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2928,13 +2937,13 @@
         <v>93</v>
       </c>
       <c r="K53">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2946,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2954,13 +2963,13 @@
         <v>94</v>
       </c>
       <c r="K54">
-        <v>0.40625</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2972,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2980,25 +2989,25 @@
         <v>95</v>
       </c>
       <c r="K55">
-        <v>0.3617021276595745</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -3006,13 +3015,13 @@
         <v>96</v>
       </c>
       <c r="K56">
-        <v>0.2622950819672131</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3024,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -3032,25 +3041,25 @@
         <v>97</v>
       </c>
       <c r="K57">
-        <v>0.2535211267605634</v>
+        <v>0.4</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N57">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -3058,13 +3067,13 @@
         <v>98</v>
       </c>
       <c r="K58">
-        <v>0.2372881355932203</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3076,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -3084,13 +3093,13 @@
         <v>99</v>
       </c>
       <c r="K59">
-        <v>0.2203389830508475</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3102,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3110,13 +3119,13 @@
         <v>100</v>
       </c>
       <c r="K60">
-        <v>0.1811023622047244</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3128,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>104</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3136,13 +3145,13 @@
         <v>101</v>
       </c>
       <c r="K61">
-        <v>0.1789473684210526</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3154,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3162,13 +3171,13 @@
         <v>102</v>
       </c>
       <c r="K62">
-        <v>0.1483253588516746</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L62">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3180,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>356</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3188,13 +3197,13 @@
         <v>103</v>
       </c>
       <c r="K63">
-        <v>0.1450381679389313</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3206,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3214,13 +3223,13 @@
         <v>104</v>
       </c>
       <c r="K64">
-        <v>0.1348837209302326</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="L64">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3232,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>186</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3240,13 +3249,13 @@
         <v>105</v>
       </c>
       <c r="K65">
-        <v>0.1225961538461538</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="L65">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3258,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>365</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3266,13 +3275,13 @@
         <v>106</v>
       </c>
       <c r="K66">
-        <v>0.1090909090909091</v>
+        <v>0.125</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3284,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>147</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3292,25 +3301,25 @@
         <v>107</v>
       </c>
       <c r="K67">
-        <v>0.1069182389937107</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67">
         <v>17</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3318,25 +3327,25 @@
         <v>108</v>
       </c>
       <c r="K68">
-        <v>0.09883720930232558</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>155</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3344,13 +3353,13 @@
         <v>109</v>
       </c>
       <c r="K69">
-        <v>0.08588957055214724</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3362,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3370,13 +3379,13 @@
         <v>110</v>
       </c>
       <c r="K70">
-        <v>0.08372093023255814</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="L70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3388,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3396,13 +3405,13 @@
         <v>111</v>
       </c>
       <c r="K71">
-        <v>0.08277404921700224</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L71">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3414,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>820</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3422,13 +3431,13 @@
         <v>112</v>
       </c>
       <c r="K72">
-        <v>0.07103218645948946</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L72">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3440,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>837</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3448,13 +3457,13 @@
         <v>113</v>
       </c>
       <c r="K73">
-        <v>0.06956521739130435</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3466,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3474,13 +3483,13 @@
         <v>114</v>
       </c>
       <c r="K74">
-        <v>0.06422018348623854</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L74">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3492,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>306</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3500,25 +3509,25 @@
         <v>115</v>
       </c>
       <c r="K75">
-        <v>0.05639097744360902</v>
+        <v>0.08389261744966443</v>
       </c>
       <c r="L75">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M75">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="N75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>251</v>
+        <v>819</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3526,25 +3535,25 @@
         <v>116</v>
       </c>
       <c r="K76">
-        <v>0.05401234567901234</v>
+        <v>0.0764525993883792</v>
       </c>
       <c r="L76">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M76">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N76">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>613</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3552,13 +3561,13 @@
         <v>117</v>
       </c>
       <c r="K77">
-        <v>0.04545454545454546</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L77">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3570,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>294</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3578,13 +3587,13 @@
         <v>118</v>
       </c>
       <c r="K78">
-        <v>0.04320987654320987</v>
+        <v>0.06104328523862375</v>
       </c>
       <c r="L78">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M78">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3596,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>465</v>
+        <v>846</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3604,25 +3613,25 @@
         <v>119</v>
       </c>
       <c r="K79">
-        <v>0.04152249134948097</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="L79">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M79">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>831</v>
+        <v>609</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3630,25 +3639,25 @@
         <v>120</v>
       </c>
       <c r="K80">
-        <v>0.04024333177351427</v>
+        <v>0.05074971164936563</v>
       </c>
       <c r="L80">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="M80">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="N80">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>2051</v>
+        <v>823</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3656,65 +3665,65 @@
         <v>121</v>
       </c>
       <c r="K81">
-        <v>0.03703703703703703</v>
+        <v>0.04213483146067416</v>
       </c>
       <c r="L81">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M81">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>546</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="K82">
-        <v>0.02650290885585003</v>
+        <v>0.03909465020576132</v>
       </c>
       <c r="L82">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="M82">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N82">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>3012</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K83">
-        <v>0.02380952380952381</v>
+        <v>0.02612903225806452</v>
       </c>
       <c r="L83">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="M83">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N83">
         <v>0.92</v>
@@ -3726,33 +3735,85 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>943</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K84">
-        <v>0.01064829314124648</v>
+        <v>0.01761658031088083</v>
       </c>
       <c r="L84">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M84">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N84">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="O84">
-        <v>0.1899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>3159</v>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K85">
+        <v>0.01123595505617977</v>
+      </c>
+      <c r="L85">
+        <v>13</v>
+      </c>
+      <c r="M85">
+        <v>17</v>
+      </c>
+      <c r="N85">
+        <v>0.76</v>
+      </c>
+      <c r="O85">
+        <v>0.24</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K86">
+        <v>0.01034158570980884</v>
+      </c>
+      <c r="L86">
+        <v>33</v>
+      </c>
+      <c r="M86">
+        <v>43</v>
+      </c>
+      <c r="N86">
+        <v>0.77</v>
+      </c>
+      <c r="O86">
+        <v>0.23</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
